--- a/SonarCloud/Simona_Bolehradsky_IT35-2018_ProjectDiary.xlsx
+++ b/SonarCloud/Simona_Bolehradsky_IT35-2018_ProjectDiary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simona faks\urisProjekat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE993D-D46E-4214-8BC6-E357DF270FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A67512-6DBD-4ED8-BA7B-FAF628E5AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20C5DEC2-B10F-44F9-9ED1-5DB010ECB74B}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t>Removed local variable x</t>
   </si>
   <si>
-    <t>Student: Simona Bolehradsky IT35/2018</t>
-  </si>
-  <si>
     <t>S1118</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
   </si>
   <si>
     <t>Added a 'protected' constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student: Simona Bolehradsky IT35/2018 </t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -2047,7 +2047,7 @@
         <v>44615</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>10</v>
@@ -2059,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="17">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>22</v>
@@ -2085,7 +2085,7 @@
         <v>44615</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="17">
         <v>2</v>
@@ -2106,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>22</v>
